--- a/Client/Assets/Data/XLSXS/DecoData.xlsx
+++ b/Client/Assets/Data/XLSXS/DecoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsy01\Desktop\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82933E60-ECA8-45A8-BE60-4132DA28FAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99066EAE-BD26-46A1-A63D-B6904126D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
@@ -25,141 +25,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>인덱스</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>부위</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>리소스 이름</t>
+  </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_name</t>
+  </si>
+  <si>
+    <t>_type</t>
+  </si>
+  <si>
+    <t>_desc</t>
+  </si>
+  <si>
+    <t>_resource</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DecoType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잉눈</t>
   </si>
   <si>
     <t>Face</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아잉눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아잉조아</t>
+  </si>
+  <si>
+    <t>A_ing_Eye</t>
   </si>
   <si>
     <t>화난눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화가난눈입니다화가난눈입니다화가난눈입니다화가난눈입니다화가난눈입니다</t>
+  </si>
+  <si>
+    <t>Angry_Eye</t>
   </si>
   <si>
     <t>놀란눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아잉조아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화가난눈입니다화가난눈입니다화가난눈입니다화가난눈입니다화가난눈입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>헉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surprize_Eye</t>
   </si>
   <si>
     <t>초록몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>기본 초록색 몸</t>
+  </si>
+  <si>
+    <t>Green_Body</t>
   </si>
   <si>
     <t>곰돌몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰돌이 귀가 생겼어요</t>
+  </si>
+  <si>
+    <t>Orange_Body</t>
   </si>
   <si>
     <t>탱글곰돌몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 초록색 몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰돌이 귀가 생겼어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>탱글탱글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리소스 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_ing_Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angry_Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Surprize_Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green_Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orange_Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Purple_Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,53 +534,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,16 +588,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,16 +622,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,16 +639,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,16 +656,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,17 +673,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Data/XLSXS/DecoData.xlsx
+++ b/Client/Assets/Data/XLSXS/DecoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsy01\Desktop\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_2024\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99066EAE-BD26-46A1-A63D-B6904126D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC97B5-76EC-4376-83C8-ACD2964B1C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="3090" yWindow="720" windowWidth="28800" windowHeight="15435" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>string</t>
   </si>
@@ -66,36 +66,9 @@
     <t>DecoType</t>
   </si>
   <si>
-    <t>아잉눈</t>
-  </si>
-  <si>
     <t>Face</t>
   </si>
   <si>
-    <t>아잉조아</t>
-  </si>
-  <si>
-    <t>A_ing_Eye</t>
-  </si>
-  <si>
-    <t>화난눈</t>
-  </si>
-  <si>
-    <t>화가난눈입니다화가난눈입니다화가난눈입니다화가난눈입니다화가난눈입니다</t>
-  </si>
-  <si>
-    <t>Angry_Eye</t>
-  </si>
-  <si>
-    <t>놀란눈</t>
-  </si>
-  <si>
-    <t>헉</t>
-  </si>
-  <si>
-    <t>Surprize_Eye</t>
-  </si>
-  <si>
     <t>초록몸</t>
   </si>
   <si>
@@ -105,25 +78,88 @@
     <t>기본 초록색 몸</t>
   </si>
   <si>
-    <t>Green_Body</t>
-  </si>
-  <si>
-    <t>곰돌몸</t>
-  </si>
-  <si>
-    <t>곰돌이 귀가 생겼어요</t>
-  </si>
-  <si>
-    <t>Orange_Body</t>
-  </si>
-  <si>
-    <t>탱글곰돌몸</t>
-  </si>
-  <si>
-    <t>탱글탱글</t>
-  </si>
-  <si>
-    <t>Purple_Body</t>
+    <t>Hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wand_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wand_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이(노란색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이(파란색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당찬눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼렁몸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자_핑크색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자_초록색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 푸른색 몸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한 눈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초롱거림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,105 +624,152 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Data/XLSXS/DecoData.xlsx
+++ b/Client/Assets/Data/XLSXS/DecoData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_2024\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsy01\Desktop\새 폴더 (2)\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC97B5-76EC-4376-83C8-ACD2964B1C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E17FD9-CE04-4E69-9776-A5C5DABA4613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="720" windowWidth="28800" windowHeight="15435" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>string</t>
   </si>
@@ -69,96 +69,259 @@
     <t>Face</t>
   </si>
   <si>
-    <t>초록몸</t>
-  </si>
-  <si>
     <t>Body</t>
   </si>
   <si>
     <t>기본 초록색 몸</t>
   </si>
   <si>
+    <t>기본 눈 1</t>
+  </si>
+  <si>
+    <t>Face_Basic_Black</t>
+  </si>
+  <si>
+    <t>기본 눈 2</t>
+  </si>
+  <si>
+    <t>Face_Basic_Brown</t>
+  </si>
+  <si>
+    <t>기본 눈 3</t>
+  </si>
+  <si>
+    <t>Face_Basic_Blue</t>
+  </si>
+  <si>
+    <t>기본 눈 4</t>
+  </si>
+  <si>
+    <t>Face_Basic_Green</t>
+  </si>
+  <si>
+    <t>기본 눈 5</t>
+  </si>
+  <si>
+    <t>Face_Basic_Red</t>
+  </si>
+  <si>
+    <t>귀여운 눈 1</t>
+  </si>
+  <si>
+    <t>Face_Cute_Black</t>
+  </si>
+  <si>
+    <t>귀여운 눈 2</t>
+  </si>
+  <si>
+    <t>Face_Cute_Brown</t>
+  </si>
+  <si>
+    <t>귀여운 눈 3</t>
+  </si>
+  <si>
+    <t>Face_Cute_Blue</t>
+  </si>
+  <si>
+    <t>귀여운 눈 4</t>
+  </si>
+  <si>
+    <t>Face_Cute_Green</t>
+  </si>
+  <si>
+    <t>귀여운 눈 5</t>
+  </si>
+  <si>
+    <t>Face_Cute_Red</t>
+  </si>
+  <si>
+    <t>순진한 눈 1</t>
+  </si>
+  <si>
+    <t>Face_Pure_Black</t>
+  </si>
+  <si>
+    <t>순진한 눈 2</t>
+  </si>
+  <si>
+    <t>Face_Pure_Brown</t>
+  </si>
+  <si>
+    <t>순진한 눈 3</t>
+  </si>
+  <si>
+    <t>Face_Pure_Blue</t>
+  </si>
+  <si>
+    <t>순진한 눈 4</t>
+  </si>
+  <si>
+    <t>Face_Pure_Green</t>
+  </si>
+  <si>
+    <t>순진한 눈 5</t>
+  </si>
+  <si>
+    <t>Face_Pure_Red</t>
+  </si>
+  <si>
+    <t>불만스러운 눈 1</t>
+  </si>
+  <si>
+    <t>Face_Bored_Black</t>
+  </si>
+  <si>
+    <t>불만스러운 눈 2</t>
+  </si>
+  <si>
+    <t>Face_Bored_Brown</t>
+  </si>
+  <si>
+    <t>불만스러운 눈 3</t>
+  </si>
+  <si>
+    <t>Face_Bored_Blue</t>
+  </si>
+  <si>
+    <t>불만스러운 눈 4</t>
+  </si>
+  <si>
+    <t>Face_Bored_Green</t>
+  </si>
+  <si>
+    <t>불만스러운 눈 5</t>
+  </si>
+  <si>
+    <t>Face_Bored_Red</t>
+  </si>
+  <si>
+    <t>웃는 눈</t>
+  </si>
+  <si>
+    <t>Face_Smile</t>
+  </si>
+  <si>
+    <t>기본 푸른색 몸</t>
+  </si>
+  <si>
+    <t>Body_Blue</t>
+  </si>
+  <si>
+    <t>Body_Green</t>
+  </si>
+  <si>
+    <t>기본 보라색 몸</t>
+  </si>
+  <si>
+    <t>Body_Purple</t>
+  </si>
+  <si>
+    <t>기본 노란색 몸</t>
+  </si>
+  <si>
+    <t>Body_Yellow</t>
+  </si>
+  <si>
+    <t>파란 망토</t>
+  </si>
+  <si>
+    <t>Manteau_Blue</t>
+  </si>
+  <si>
+    <t>초록 망토</t>
+  </si>
+  <si>
+    <t>Manteau_Green</t>
+  </si>
+  <si>
+    <t>빨간 망토</t>
+  </si>
+  <si>
+    <t>Manteau_Red</t>
+  </si>
+  <si>
+    <t>노란 망토</t>
+  </si>
+  <si>
+    <t>Manteau_Yellow</t>
+  </si>
+  <si>
+    <t>모자_초록색</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Hat_Green</t>
+  </si>
+  <si>
+    <t>모자_핑크색</t>
+  </si>
+  <si>
+    <t>Hat_Pink</t>
+  </si>
+  <si>
+    <t>모자_파란색</t>
+  </si>
+  <si>
     <t>Hair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hat_Blue</t>
+  </si>
+  <si>
+    <t>단발머리</t>
+  </si>
+  <si>
+    <t>Hair_Bob</t>
+  </si>
+  <si>
+    <t>뽀글머리</t>
+  </si>
+  <si>
+    <t>Hair_Perm</t>
+  </si>
+  <si>
+    <t>댄디한 머리</t>
+  </si>
+  <si>
+    <t>Hair_Short</t>
+  </si>
+  <si>
+    <t>양갈래 머리</t>
+  </si>
+  <si>
+    <t>Hair_Twin</t>
+  </si>
+  <si>
+    <t>동그란 지팡이</t>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wand_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wand_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지팡이(노란색)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지팡이(파란색)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착한눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당찬눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼렁몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hair_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hair_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남자 머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자 머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모자_핑크색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모자_초록색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 푸른색 몸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착한 눈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초롱거림</t>
+  </si>
+  <si>
+    <t>Wand_Circle</t>
+  </si>
+  <si>
+    <t>하트 지팡이</t>
+  </si>
+  <si>
+    <t>Wand_Heart</t>
+  </si>
+  <si>
+    <t>달 지팡이</t>
+  </si>
+  <si>
+    <t>Wand_Moon</t>
+  </si>
+  <si>
+    <t>별 지팡이</t>
+  </si>
+  <si>
+    <t>Wand_Star</t>
+  </si>
+  <si>
+    <t>Cape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,118 +787,119 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,13 +907,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,19 +922,465 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
